--- a/append.xlsx
+++ b/append.xlsx
@@ -1,36 +1,480 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alean\OneDrive\Desktop\Qr Code scanner\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB69B981-3B04-40CB-BA63-C873FE23FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="435" yWindow="4245" windowWidth="21600" windowHeight="11235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="144">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ctime</t>
+  </si>
+  <si>
+    <t>Denna TiuvAGeQ</t>
+  </si>
+  <si>
+    <t>2024-11-30 16:47:10</t>
+  </si>
+  <si>
+    <t>Jerryjone EcogGyvM</t>
+  </si>
+  <si>
+    <t>2024-11-30 16:49:21</t>
+  </si>
+  <si>
+    <t>Tin JimenezMY67w</t>
+  </si>
+  <si>
+    <t>2024-11-30 16:52:36</t>
+  </si>
+  <si>
+    <t>Gina Lyn Rasco Eco0G6dB</t>
+  </si>
+  <si>
+    <t>2024-11-30 17:01:45</t>
+  </si>
+  <si>
+    <t>Badong BeatojwlEn</t>
+  </si>
+  <si>
+    <t>2024-11-30 17:22:38</t>
+  </si>
+  <si>
+    <t>Melanie Roque CalaI6WQ8</t>
+  </si>
+  <si>
+    <t>2024-11-30 17:28:14</t>
+  </si>
+  <si>
+    <t>Adjerico Madriaga1Fq27</t>
+  </si>
+  <si>
+    <t>Arlene ReyesQVrE9</t>
+  </si>
+  <si>
+    <t>Joseph Ronald Castro Arlene ReyesDqB8n</t>
+  </si>
+  <si>
+    <t>Ma. Cecilia De CastroFm0cL</t>
+  </si>
+  <si>
+    <t>Catherine RosentolW2yJ</t>
+  </si>
+  <si>
+    <t>Lealyn A. Delos SantoseRVZN</t>
+  </si>
+  <si>
+    <t>Riza VillanuevaZhGDR</t>
+  </si>
+  <si>
+    <t>Jennylyn Belvis1gAA9</t>
+  </si>
+  <si>
+    <t>Janice CorillaL3Yr2</t>
+  </si>
+  <si>
+    <t>Christopher VelascoPgyfV</t>
+  </si>
+  <si>
+    <t>Maricar De OcampoP4B66</t>
+  </si>
+  <si>
+    <t>Jeffrey CamayamBJ40</t>
+  </si>
+  <si>
+    <t>Brend LisaxrkEh</t>
+  </si>
+  <si>
+    <t>Leonora Policarpio Caasi - NinicLGu0</t>
+  </si>
+  <si>
+    <t>Mildred CamayarAqLh</t>
+  </si>
+  <si>
+    <t>Carlito OberaFnk4a</t>
+  </si>
+  <si>
+    <t>Aris BautistagibyZ</t>
+  </si>
+  <si>
+    <t>2024-11-30 17:36:44</t>
+  </si>
+  <si>
+    <t>Hazel TanqYKqq</t>
+  </si>
+  <si>
+    <t>Atty. Antero Penasales-COMPLIIwsCE</t>
+  </si>
+  <si>
+    <t>Rechie Montoya7azJI</t>
+  </si>
+  <si>
+    <t>Rizza UydjFzJ</t>
+  </si>
+  <si>
+    <t>Jenny Del CarmenHRTM8</t>
+  </si>
+  <si>
+    <t>Joseph MendozaUlghM</t>
+  </si>
+  <si>
+    <t>Charlie JosevJF2u</t>
+  </si>
+  <si>
+    <t>Jacklyn De GuzmanoWmbi</t>
+  </si>
+  <si>
+    <t>Aj Santos Baesa8twqh</t>
+  </si>
+  <si>
+    <t>Karyll AgramonMty7o</t>
+  </si>
+  <si>
+    <t>Alex TorredaFRdJy</t>
+  </si>
+  <si>
+    <t>Michelle Aleli VillestasgVsUn</t>
+  </si>
+  <si>
+    <t>Marison EurofanfBZFl</t>
+  </si>
+  <si>
+    <t>Jomark VillestasDrtQs</t>
+  </si>
+  <si>
+    <t>2024-11-30 17:45:11</t>
+  </si>
+  <si>
+    <t>Grace CastilloJGUCc</t>
+  </si>
+  <si>
+    <t>Richmond Cruzabhkv</t>
+  </si>
+  <si>
+    <t>Glady Bajaro LopezRzrZh</t>
+  </si>
+  <si>
+    <t>Joycelyn Bagaporocmcae</t>
+  </si>
+  <si>
+    <t>Aubrey Baluagr3Rrl</t>
+  </si>
+  <si>
+    <t>Kim GatchalianBG3u1</t>
+  </si>
+  <si>
+    <t>Daniel SinalubongkyPs9</t>
+  </si>
+  <si>
+    <t>Malanie Malit MonidorNXPX</t>
+  </si>
+  <si>
+    <t>Rochelle ReyesmnhnS</t>
+  </si>
+  <si>
+    <t>Marian PinedaYGId9</t>
+  </si>
+  <si>
+    <t>Mark SolimanSJtkd</t>
+  </si>
+  <si>
+    <t>Joy Sta. AnaxkI7J</t>
+  </si>
+  <si>
+    <t>Danilo CalingaFB41Q</t>
+  </si>
+  <si>
+    <t>Angelo CobillaCUgNN</t>
+  </si>
+  <si>
+    <t>Mario B Silverio Jr.z0hFT</t>
+  </si>
+  <si>
+    <t>Jessie Tanuecoz JrOxd36</t>
+  </si>
+  <si>
+    <t>Arlene Cabrera VillanuevaRod7b</t>
+  </si>
+  <si>
+    <t>Mary Jean R. CadizGsIOQ</t>
+  </si>
+  <si>
+    <t>Carmelita Sornit-ReambonanzaAP49I</t>
+  </si>
+  <si>
+    <t>2024-11-30 17:52:19</t>
+  </si>
+  <si>
+    <t>Rayson Manantan4VkvA</t>
+  </si>
+  <si>
+    <t>John Dennis MijaresFNuMT</t>
+  </si>
+  <si>
+    <t>Amado Manuel Jr.gJrQU</t>
+  </si>
+  <si>
+    <t>Amy Espirutu PangilinanTRn1i</t>
+  </si>
+  <si>
+    <t>John Paul Reutazjg5A</t>
+  </si>
+  <si>
+    <t>Abdul Nasser Dela CruzGS5Aj</t>
+  </si>
+  <si>
+    <t>Jasmin CanoZVOqk</t>
+  </si>
+  <si>
+    <t>Elvira Ramiro EstaciojE9Qv</t>
+  </si>
+  <si>
+    <t>Djarma AlcantaraW2rD4</t>
+  </si>
+  <si>
+    <t>Aubrey Raon Rocafortc3DyN</t>
+  </si>
+  <si>
+    <t>Von Ian Bautistab7Uhg</t>
+  </si>
+  <si>
+    <t>Sarah MaglaquiAsWo9</t>
+  </si>
+  <si>
+    <t>Maria Sharlyn May P. BudoyITt2l</t>
+  </si>
+  <si>
+    <t>Girlie Dela CruzEO44f</t>
+  </si>
+  <si>
+    <t>Maretel CabarlotOhpF</t>
+  </si>
+  <si>
+    <t>Jhoanna RoblesGaNDv</t>
+  </si>
+  <si>
+    <t>Aris FopalanJNTeY</t>
+  </si>
+  <si>
+    <t>Meljohn GozoAeLkS</t>
+  </si>
+  <si>
+    <t>Christian Chico GarciajK8kN</t>
+  </si>
+  <si>
+    <t>Zyween Abring SevillenonyZ9Z</t>
+  </si>
+  <si>
+    <t>Jeffrey Balberde3OrKJ</t>
+  </si>
+  <si>
+    <t>Gina AlonzobqsoD</t>
+  </si>
+  <si>
+    <t>Edward Brioness4kB9</t>
+  </si>
+  <si>
+    <t>Ruelito LlanesPP3bO</t>
+  </si>
+  <si>
+    <t>Robert SeballosZgZHa</t>
+  </si>
+  <si>
+    <t>Marlon UsmandFBVc</t>
+  </si>
+  <si>
+    <t>Jasper Caparase53NU</t>
+  </si>
+  <si>
+    <t>Mary Jane NavarroycYXF</t>
+  </si>
+  <si>
+    <t>Elfrine RiveraoBnkX</t>
+  </si>
+  <si>
+    <t>Vanessa MarcellanopBPwo</t>
+  </si>
+  <si>
+    <t>Jeanelyn 9 MirandaYEjrz</t>
+  </si>
+  <si>
+    <t>Ronald 9 RamosM7pyZ</t>
+  </si>
+  <si>
+    <t>Lyndon 9 Buaquenn0BI9</t>
+  </si>
+  <si>
+    <t>John Carlo AmadawBJmI</t>
+  </si>
+  <si>
+    <t>Marilou San Pedro MercadoZVYvn</t>
+  </si>
+  <si>
+    <t>Jimson Roy FernandezEvZGG</t>
+  </si>
+  <si>
+    <t>Jay Ar Jarlegowk8xC</t>
+  </si>
+  <si>
+    <t>Alejandre PamesaC1CQ7</t>
+  </si>
+  <si>
+    <t>Cecille RamosXfC7t</t>
+  </si>
+  <si>
+    <t>Analaine BartolomeIMaxG</t>
+  </si>
+  <si>
+    <t>Regina Salas4HVFW</t>
+  </si>
+  <si>
+    <t>Catherine ObaneWNtzj</t>
+  </si>
+  <si>
+    <t>Alex David8JgGN</t>
+  </si>
+  <si>
+    <t>Fernan CantosX8lC6</t>
+  </si>
+  <si>
+    <t>Julieta Rodriguez Bariuad66PEZ</t>
+  </si>
+  <si>
+    <t>Eloisa Carlos VersosajVkQd</t>
+  </si>
+  <si>
+    <t>Cacai Danao Rivera7iLAI</t>
+  </si>
+  <si>
+    <t>Maria Lourdes RaquepoVTjRb</t>
+  </si>
+  <si>
+    <t>Marites Luna4tc9A</t>
+  </si>
+  <si>
+    <t>Irene BodioganexOsm</t>
+  </si>
+  <si>
+    <t>Mischel JumetilcoFguOb</t>
+  </si>
+  <si>
+    <t>Lorielyn Ramirez0AVWJ</t>
+  </si>
+  <si>
+    <t>Naezell ValbuenaaKCpk</t>
+  </si>
+  <si>
+    <t>Junel Trinidad r7F2o</t>
+  </si>
+  <si>
+    <t>Ma. Jhoanna ViloriaVlYV8</t>
+  </si>
+  <si>
+    <t>Queenie CustodioB2hMs</t>
+  </si>
+  <si>
+    <t>Melissa Joyce SantospyC2q</t>
+  </si>
+  <si>
+    <t>Daniel SalesUv6v7</t>
+  </si>
+  <si>
+    <t>Ronnel EspanillovMhKp</t>
+  </si>
+  <si>
+    <t>Ma Julieta CarilloWDedy</t>
+  </si>
+  <si>
+    <t>Lester de JesuszKnIo</t>
+  </si>
+  <si>
+    <t>Adelyn Corporal-CagadasIXwxc</t>
+  </si>
+  <si>
+    <t>Priscillo CagadasaVnip</t>
+  </si>
+  <si>
+    <t>Ronald Gesmundo6HkY1</t>
+  </si>
+  <si>
+    <t>Jennelyn 9 Payumo-Miralles 8mOW6</t>
+  </si>
+  <si>
+    <t>2024-11-30 18:40:24</t>
+  </si>
+  <si>
+    <t>Fernan Silvaq1DFu</t>
+  </si>
+  <si>
+    <t>Crisgel irincopHWTD</t>
+  </si>
+  <si>
+    <t>Rachael CaringalenpQK</t>
+  </si>
+  <si>
+    <t>Harold BaduriayImby</t>
+  </si>
+  <si>
+    <t>Ronald 9 Jess Arellano6qE5W</t>
+  </si>
+  <si>
+    <t>Florilyn MasacupanIwLt2</t>
+  </si>
+  <si>
+    <t>Raymond DumlatezaXXdGl</t>
+  </si>
+  <si>
+    <t>Vivian FulacheogwyV</t>
+  </si>
+  <si>
+    <t>Vagsik Beejay Vecina CEHMQ</t>
+  </si>
+  <si>
+    <t>2024-11-30 18:46:35</t>
+  </si>
+  <si>
+    <t>Armie VecinaXIToD</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,93 +489,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,41 +845,1072 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="L137" sqref="L137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Ctime</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>yana</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-10-28 02:55:29</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
